--- a/reports/raw-views/assets/tables/meso_category_usage_frequency_relative.xlsx
+++ b/reports/raw-views/assets/tables/meso_category_usage_frequency_relative.xlsx
@@ -492,7 +492,7 @@
         <v>0.005985673633598273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>0.002158767539986263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001004016064257028</v>
+        <v>0.001118568232662192</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001004016064257028</v>
+        <v>0.001118568232662192</v>
       </c>
     </row>
     <row r="6">
@@ -549,10 +549,10 @@
         <v>0.007751937984496124</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00496031746031746</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001004016064257028</v>
+        <v>0.001118568232662192</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>0.002256893337258365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003012048192771084</v>
+        <v>0.003355704697986577</v>
       </c>
     </row>
     <row r="8">
@@ -587,143 +587,143 @@
         <v>0.0008831321754489255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002976190476190476</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003012048192771084</v>
+        <v>0.003355704697986577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>linguagem e representação</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02566539923954373</v>
+        <v>0.001584283903675539</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02355019134530468</v>
+        <v>0.001471886959081543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005020080321285141</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sociedade e consumo</t>
+          <t>raça e racismo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01869455006337136</v>
+        <v>0.0009505703422053232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01982141104896477</v>
+        <v>0.002256893337258365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005020080321285141</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>raça e racismo</t>
+          <t>sociedade e consumo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0009505703422053232</v>
+        <v>0.01869455006337136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002256893337258365</v>
+        <v>0.01982141104896477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005020080321285141</v>
+        <v>0.005592841163310962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>recreação, lazer e entretenimento</t>
+          <t>linguagem e representação</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04372623574144487</v>
+        <v>0.02566539923954373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04533411833971151</v>
+        <v>0.02355019134530468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01091269841269841</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.005592841163310962</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008555133079847909</v>
+        <v>0.009822560202788339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01589637915808066</v>
+        <v>0.009420076538121873</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0505952380952381</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.005592841163310962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>recreação, lazer e entretenimento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001584283903675539</v>
+        <v>0.04372623574144487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001471886959081543</v>
+        <v>0.04533411833971151</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002976190476190476</v>
+        <v>0.01</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007028112449799197</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009822560202788339</v>
+        <v>0.008555133079847909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009420076538121873</v>
+        <v>0.01589637915808066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01091269841269841</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007028112449799197</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="16">
@@ -739,48 +739,48 @@
         <v>0.002158767539986263</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007028112449799197</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>questão agrária e territorial</t>
+          <t>desinformação, populismo e polarização</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01045627376425855</v>
+        <v>0.0123574144486692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01246197625355706</v>
+        <v>0.01314885683446178</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008032128514056224</v>
+        <v>0.007829977628635347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>desinformação, populismo e polarização</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0123574144486692</v>
+        <v>0.02154626108998733</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01314885683446178</v>
+        <v>0.01187322146992444</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009036144578313253</v>
+        <v>0.007829977628635347</v>
       </c>
     </row>
     <row r="19">
@@ -796,48 +796,48 @@
         <v>0.01118634088901972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01488095238095238</v>
+        <v>0.01444444444444444</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009036144578313253</v>
+        <v>0.007829977628635347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>questão agrária e territorial</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001901140684410646</v>
+        <v>0.01045627376425855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001766264350897851</v>
+        <v>0.01246197625355706</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02281746031746032</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.008948545861297539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02154626108998733</v>
+        <v>0.001901140684410646</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01187322146992444</v>
+        <v>0.001766264350897851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.008948545861297539</v>
       </c>
     </row>
     <row r="22">
@@ -853,124 +853,124 @@
         <v>0.01000883132175449</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.01118568232662192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>territorialidade e colonialismo</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009822560202788339</v>
+        <v>0.01077313054499366</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01138259248356393</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01305220883534136</v>
+        <v>0.01230425055928412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>violências e preconceitos de gênero</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01552598225602028</v>
+        <v>0.005069708491761723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0137376116180944</v>
+        <v>0.006868805809047199</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01091269841269841</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01405622489959839</v>
+        <v>0.01342281879194631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>territorialidade e colonialismo</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01077313054499366</v>
+        <v>0.009822560202788339</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.01138259248356393</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01884920634920635</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01405622489959839</v>
+        <v>0.0145413870246085</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>violências e preconceitos de gênero</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005069708491761723</v>
+        <v>0.01552598225602028</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006868805809047199</v>
+        <v>0.0137376116180944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01091269841269841</v>
+        <v>0.01222222222222222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01606425702811245</v>
+        <v>0.01565995525727069</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>direitos humanos</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008238276299112801</v>
+        <v>0.02217997465145754</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00863507015994505</v>
+        <v>0.03159650672161711</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01706827309236948</v>
+        <v>0.01565995525727069</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>crises e desastres ambientais e sociais</t>
+          <t>biografia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009188846641318124</v>
+        <v>0.003168567807351077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.002453144931802571</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01388888888888889</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01706827309236948</v>
+        <v>0.01677852348993289</v>
       </c>
     </row>
     <row r="29">
@@ -986,105 +986,105 @@
         <v>0.02806397801982141</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.03222222222222222</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01907630522088354</v>
+        <v>0.01789709172259508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>direitos humanos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00285171102661597</v>
+        <v>0.008238276299112801</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002649396526346777</v>
+        <v>0.00863507015994505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01488095238095238</v>
+        <v>0.01</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01907630522088354</v>
+        <v>0.01901565995525727</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>biografia</t>
+          <t>crises e desastres ambientais e sociais</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003168567807351077</v>
+        <v>0.009188846641318124</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002453144931802571</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.01901565995525727</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01615969581749049</v>
+        <v>0.01204055766793409</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01079383769993131</v>
+        <v>0.01216759886174075</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02108433734939759</v>
+        <v>0.02125279642058166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02217997465145754</v>
+        <v>0.00285171102661597</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03159650672161711</v>
+        <v>0.002649396526346777</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01884920634920635</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02208835341365462</v>
+        <v>0.02125279642058166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01204055766793409</v>
+        <v>0.01615969581749049</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01216759886174075</v>
+        <v>0.01079383769993131</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02309236947791165</v>
+        <v>0.02237136465324385</v>
       </c>
     </row>
     <row r="35">
@@ -1100,105 +1100,105 @@
         <v>0.03728780296339908</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0376984126984127</v>
+        <v>0.03222222222222222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0251004016064257</v>
+        <v>0.02572706935123042</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>vida afetiva</t>
+          <t>dinâmica urbana</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.09917617237008872</v>
+        <v>0.0532319391634981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09822392306937494</v>
+        <v>0.04189971543518791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06051587301587302</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0251004016064257</v>
+        <v>0.02572706935123042</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dinâmica urbana</t>
+          <t>vida afetiva</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0532319391634981</v>
+        <v>0.09917617237008872</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04189971543518791</v>
+        <v>0.09822392306937494</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0505952380952381</v>
+        <v>0.06555555555555556</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0251004016064257</v>
+        <v>0.02796420581655481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06210392902408111</v>
+        <v>0.05038022813688213</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06476302619958788</v>
+        <v>0.05102541458149348</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04464285714285714</v>
+        <v>0.02555555555555556</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02710843373493976</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03580481622306717</v>
+        <v>0.03295310519645121</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02983024237071926</v>
+        <v>0.03061524874889609</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.02888888888888889</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02911646586345382</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03612167300380228</v>
+        <v>0.06210392902408111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03718967716612698</v>
+        <v>0.06476302619958788</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0248015873015873</v>
+        <v>0.04777777777777778</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02911646586345382</v>
+        <v>0.0302013422818792</v>
       </c>
     </row>
     <row r="41">
@@ -1214,67 +1214,67 @@
         <v>0.01530762437444804</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03112449799196787</v>
+        <v>0.0302013422818792</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>povos originários e comunidades tradicionais</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02408111533586819</v>
+        <v>0.03612167300380228</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02237268177803945</v>
+        <v>0.03718967716612698</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03112449799196787</v>
+        <v>0.0302013422818792</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>povos originários e comunidades tradicionais</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05038022813688213</v>
+        <v>0.02408111533586819</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05102541458149348</v>
+        <v>0.02237268177803945</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02579365079365079</v>
+        <v>0.02111111111111111</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0321285140562249</v>
+        <v>0.03243847874720358</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>pandemia</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03295310519645121</v>
+        <v>0.03580481622306717</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03061524874889609</v>
+        <v>0.02983024237071926</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03373015873015873</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03313253012048193</v>
+        <v>0.03243847874720358</v>
       </c>
     </row>
     <row r="45">
@@ -1290,48 +1290,48 @@
         <v>0.005985673633598273</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03413654618473896</v>
+        <v>0.03467561521252797</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>resistência e luta</t>
+          <t>vida cotidiana</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.00697084917617237</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="C46" t="n">
-        <v>0.007850063781768227</v>
+        <v>0.010499460308115</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02678571428571428</v>
+        <v>0.02</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03815261044176707</v>
+        <v>0.04138702460850112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>vida cotidiana</t>
+          <t>resistência e luta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007604562737642586</v>
+        <v>0.00697084917617237</v>
       </c>
       <c r="C47" t="n">
-        <v>0.010499460308115</v>
+        <v>0.007850063781768227</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01884920634920635</v>
+        <v>0.03</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04116465863453815</v>
+        <v>0.04138702460850112</v>
       </c>
     </row>
     <row r="48">
@@ -1347,10 +1347,10 @@
         <v>0.0278677264252772</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04563492063492063</v>
+        <v>0.04111111111111111</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.0436241610738255</v>
       </c>
     </row>
     <row r="49">
@@ -1366,48 +1366,48 @@
         <v>0.03395152585614758</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05257936507936508</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04718875502008032</v>
+        <v>0.05145413870246085</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>poesia e ensaio</t>
+          <t>reflexão</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07065906210392903</v>
+        <v>0.00285171102661597</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06829555490138357</v>
+        <v>0.004023157688156216</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05753968253968254</v>
+        <v>0.02111111111111111</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05020080321285141</v>
+        <v>0.05257270693512305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>reflexão</t>
+          <t>poesia e ensaio</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.00285171102661597</v>
+        <v>0.07065906210392903</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004023157688156216</v>
+        <v>0.06829555490138357</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02678571428571428</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05823293172690763</v>
+        <v>0.05592841163310962</v>
       </c>
     </row>
     <row r="52">
@@ -1423,10 +1423,10 @@
         <v>0.004023157688156216</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07128514056224899</v>
+        <v>0.06823266219239374</v>
       </c>
     </row>
   </sheetData>
